--- a/VerveStacks_FIN_grids/vt_vervestacks_FIN_v1.xlsx
+++ b/VerveStacks_FIN_grids/vt_vervestacks_FIN_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ABB6BEB-E170-4E6B-BD53-393937E89E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B1A8B22-15D6-4CDC-B5E6-A69BFB7DBB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8AA903A4-0A11-4014-915B-2C67B0B2078D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F037A26D-89D0-41F7-BAD2-B47CD9510C85}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1914,24 +1914,24 @@
     <t>ele</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/43143343-400_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/47317827-400_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/43143343-400_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant</t>
   </si>
   <si>
@@ -1995,12 +1995,12 @@
     <t>Raahen Voima power station_1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/98561229-400_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - FI6-220_Missing Hydro Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap - way/98561229-400_Missing Hydro Capacity</t>
-  </si>
-  <si>
     <t>Imatra hydroelectric plant_</t>
   </si>
   <si>
@@ -2298,10 +2298,10 @@
     <t>ccs retrofit of -- Raahen Voima power station_1</t>
   </si>
   <si>
+    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/28820749-400_Missing Gas Capacity</t>
+  </si>
+  <si>
     <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - FI37-400_Missing Gas Capacity</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Aggregated Plant - EMBER Gap - way/28820749-400_Missing Gas Capacity</t>
   </si>
   <si>
     <t>ccs retrofit of -- Porvoo Refinery power station_2 &amp; 3</t>
@@ -2473,7 +2473,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0C5656E-75C2-262F-87A1-E6E5F469C962}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C14CF0-ACD7-272F-38EA-EB24BA9564D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2528,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A587D2-A975-0E14-BF3D-FF1184F8D1FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D104381C-7208-329B-CCCF-AD432F659181}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A5DEF0-3FF8-43DB-A29A-06B859DDCC4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510EEA62-56EE-47EF-A4D2-4FD69507740F}">
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4059,7 +4059,7 @@
         <v>67</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D23" s="4">
         <v>0.52272499999999988</v>
@@ -4115,7 +4115,7 @@
         <v>67</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D24" s="3">
         <v>0.52272499999999988</v>
@@ -5342,7 +5342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9153576-AA28-4401-9B4C-28FBB00DE89B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DDE68A-EB0C-41EA-85AA-2A4822517E56}">
   <dimension ref="A1:T462"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8208,13 +8208,13 @@
         <v>67</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D56" s="3">
         <v>2022</v>
       </c>
       <c r="E56" s="3">
-        <v>0.10830077120822623</v>
+        <v>0.25153727506426737</v>
       </c>
       <c r="F56" s="3">
         <v>0.59739999999999993</v>
@@ -8261,13 +8261,13 @@
         <v>67</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D57" s="4">
         <v>2022</v>
       </c>
       <c r="E57" s="4">
-        <v>0.25153727506426737</v>
+        <v>0.10830077120822623</v>
       </c>
       <c r="F57" s="4">
         <v>0.59739999999999993</v>

--- a/VerveStacks_FIN_grids/vt_vervestacks_FIN_v1.xlsx
+++ b/VerveStacks_FIN_grids/vt_vervestacks_FIN_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B1A8B22-15D6-4CDC-B5E6-A69BFB7DBB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC65DE83-C526-4EA9-96AF-EBADCB59AD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F037A26D-89D0-41F7-BAD2-B47CD9510C85}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{4F86AF7B-3AEA-445F-9DFC-E2D425016628}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1914,24 +1914,24 @@
     <t>ele</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/47317827-400_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/43143343-400_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/47317827-400_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant</t>
   </si>
   <si>
@@ -1995,10 +1995,10 @@
     <t>Raahen Voima power station_1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - FI6-220_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/98561229-400_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - FI6-220_Missing Hydro Capacity</t>
   </si>
   <si>
     <t>Imatra hydroelectric plant_</t>
@@ -2473,7 +2473,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C14CF0-ACD7-272F-38EA-EB24BA9564D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{771050E9-F8C2-DA85-90F6-8E1FEBE76415}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2528,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D104381C-7208-329B-CCCF-AD432F659181}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F6FBD5-B6B5-1042-D976-C7FE95AC2E94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510EEA62-56EE-47EF-A4D2-4FD69507740F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D01C7C1-4677-4103-92F6-CEE177393C67}">
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5342,7 +5342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DDE68A-EB0C-41EA-85AA-2A4822517E56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8CBFAA-421F-495D-A233-4612B8FDBF39}">
   <dimension ref="A1:T462"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9215,13 +9215,13 @@
         <v>91</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="D75" s="4">
         <v>2022</v>
       </c>
       <c r="E75" s="4">
-        <v>0.10623133235724742</v>
+        <v>0.13908638360175696</v>
       </c>
       <c r="F75" s="4">
         <v>1</v>
@@ -9230,7 +9230,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H75" s="4">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="I75" s="4">
         <v>2.3100000000000005</v>
@@ -9268,13 +9268,13 @@
         <v>91</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D76" s="3">
         <v>2022</v>
       </c>
       <c r="E76" s="3">
-        <v>0.13908638360175696</v>
+        <v>0.10623133235724742</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -9283,7 +9283,7 @@
         <v>3162.5000000000005</v>
       </c>
       <c r="H76" s="3">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I76" s="3">
         <v>2.3100000000000005</v>

--- a/VerveStacks_FIN_grids/vt_vervestacks_FIN_v1.xlsx
+++ b/VerveStacks_FIN_grids/vt_vervestacks_FIN_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC65DE83-C526-4EA9-96AF-EBADCB59AD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71F38EB3-1535-4011-BADD-2379A98E569F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{4F86AF7B-3AEA-445F-9DFC-E2D425016628}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{EC25DB1C-E2F5-4871-996E-A9D2937AF42A}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -78,12 +78,12 @@
     <t>bioenergy</t>
   </si>
   <si>
+    <t>e_w47317827-400</t>
+  </si>
+  <si>
     <t>e_w43143343-400</t>
   </si>
   <si>
-    <t>e_w47317827-400</t>
-  </si>
-  <si>
     <t>ep_bioenergy_FI26-400</t>
   </si>
   <si>
@@ -1914,24 +1914,24 @@
     <t>ele</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/43143343-400_Missing Bioenergy Capacity</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - way/47317827-400_Missing Bioenergy Capacity</t>
   </si>
   <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - EMBER Gap - way/43143343-400_Missing Bioenergy Capacity</t>
-  </si>
-  <si>
     <t>Aggregated Plant</t>
   </si>
   <si>
@@ -1971,12 +1971,12 @@
     <t>Meri-Pori power station_Unit 1</t>
   </si>
   <si>
+    <t>Aggregated Plant - EMBER Gap - way/28820749-400_Missing Gas Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - EMBER Gap - FI37-400_Missing Gas Capacity</t>
   </si>
   <si>
-    <t>Aggregated Plant - EMBER Gap - way/28820749-400_Missing Gas Capacity</t>
-  </si>
-  <si>
     <t>Lielahti power station_1</t>
   </si>
   <si>
@@ -1995,10 +1995,10 @@
     <t>Raahen Voima power station_1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/98561229-400_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - FI6-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/98561229-400_Missing Hydro Capacity</t>
   </si>
   <si>
     <t>Imatra hydroelectric plant_</t>
@@ -2473,7 +2473,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{771050E9-F8C2-DA85-90F6-8E1FEBE76415}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318D6AA6-4170-EEA4-6360-6CDE7B01A21A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2528,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F6FBD5-B6B5-1042-D976-C7FE95AC2E94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F74FDB-4246-E98D-610D-87F5C54021DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D01C7C1-4677-4103-92F6-CEE177393C67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F63A27-522C-43E4-A176-A5D59CB758DE}">
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5342,7 +5342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8CBFAA-421F-495D-A233-4612B8FDBF39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FFD5D0-B883-4DF4-9E78-34626DB358A3}">
   <dimension ref="A1:T462"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5458,7 +5458,7 @@
         <v>2022</v>
       </c>
       <c r="E4" s="3">
-        <v>0.11733166039314097</v>
+        <v>0.1593002927645337</v>
       </c>
       <c r="F4" s="3">
         <v>0.33990000000000004</v>
@@ -5511,7 +5511,7 @@
         <v>2022</v>
       </c>
       <c r="E5" s="4">
-        <v>0.1593002927645337</v>
+        <v>0.11733166039314097</v>
       </c>
       <c r="F5" s="4">
         <v>0.33990000000000004</v>
@@ -6035,7 +6035,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4">
         <v>2017</v>
@@ -6088,7 +6088,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3">
         <v>2023</v>
@@ -7148,7 +7148,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="3">
         <v>1980</v>
@@ -9745,7 +9745,7 @@
         <v>91</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" s="4">
         <v>1949</v>
@@ -10646,7 +10646,7 @@
         <v>91</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102" s="3">
         <v>2022</v>
